--- a/docs/assets/disciplinas/LOQ4241.xlsx
+++ b/docs/assets/disciplinas/LOQ4241.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -67,7 +67,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Apresentar conceitos, ferramentas e métodos para o auxílio à tomada de decisão.</t>
+    <t>5840917 - Fabrício Maciel Gomes</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -76,13 +76,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5840917 - Fabrício Maciel Gomes</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Teoria da Decisão; Estruturação, Decisão sem Risco e sem Incerteza; Decisão com Múltiplos Cenários ou Múltiplos Critérios; Decisão com Incerteza; Sistemas de Auxílio à Decisão e Sistemas Especialistas.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -91,13 +88,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1.Teoria da Decisão
-2.Estruturação, Decisão sem Risco e sem Incerteza
-3.Decisão com Múltiplos Cenários ou Múltiplos Critérios
-4.Decisão com Incerteza
-5.Sistemas de Auxílio à Decisão e Sistemas Especialistas.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -107,28 +97,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Aulas expositivas teóricas, aulas práticas, aulas de exercícios.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>A Nota Final do aluno será determinada segundo a seguinte equação: Nota Final = (Prova- Bimestral-1*0,4) + (Prova-Bimestral-2*0,4) + (Trabalho*0,2)</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Média aritmética da nota final obtida pelo aluno durante o semestre e da nota obtida na Prova de Recuperação.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1.ENSSLIN, L.; MONTIBELLER NETO, G.; NORONHA, S. M. (2001), Apoio à Decisão: metodologias para estruturação de problemas e avaliação multicritério de alternativas, Florianópolis: Insular
-2.GOMES, L. F. A. M.; GOMES, C. F. S.; ALMEIDA, A. T. (2002), Tomada de Decisão Gerencial: enfoque multicritério, São Paulo: Atlas
-3.LAWRENCE, J. A. JR.; PASTERNACK, B. A. (2002), Applied Management Science: modeling, spreadsheet analysis and communication for decision making, 2nd edition, New York (USA): Wiley
-4.SHIMIZU, T. (2001), Decisão nas Organizações: introdução aos problemas de decisão encontrados nas organizações e nos sistemas de apoio à decisão, São Paulo: Atlas</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -491,7 +475,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,106 +594,98 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>27</v>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>37</v>
+      <c r="C23" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOQ4241.xlsx
+++ b/docs/assets/disciplinas/LOQ4241.xlsx
@@ -67,7 +67,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>5840917 - Fabrício Maciel Gomes</t>
+    <t>5840917 - Fabricio Maciel Gomes</t>
   </si>
   <si>
     <t>Objectives:</t>

--- a/docs/assets/disciplinas/LOQ4241.xlsx
+++ b/docs/assets/disciplinas/LOQ4241.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -67,19 +67,22 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Apresentar conceitos, ferramentas e métodos para o auxílio à tomada de decisão.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5840917 - Fabricio Maciel Gomes</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Teoria da Decisão; Estruturação, Decisão sem Risco e sem Incerteza; Decisão com Múltiplos Cenários ou Múltiplos Critérios; Decisão com Incerteza; Sistemas de Auxílio à Decisão e Sistemas Especialistas.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -88,6 +91,13 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1.Teoria da Decisão
+2.Estruturação, Decisão sem Risco e sem Incerteza
+3.Decisão com Múltiplos Cenários ou Múltiplos Critérios
+4.Decisão com Incerteza
+5.Sistemas de Auxílio à Decisão e Sistemas Especialistas.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -97,22 +107,28 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Aulas expositivas teóricas, aulas práticas, aulas de exercícios.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Aulas expositivas teóricas, aulas práticas, aulas de exercícios.</t>
+    <t>A Nota Final do aluno será determinada segundo a seguinte equação: Nota Final = (Prova- Bimestral-1*0,4) + (Prova-Bimestral-2*0,4) + (Trabalho*0,2)</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>A Nota Final do aluno será determinada segundo a seguinte equação: Nota Final = (Prova- Bimestral-1*0,4) + (Prova-Bimestral-2*0,4) + (Trabalho*0,2)</t>
+    <t>Média aritmética da nota final obtida pelo aluno durante o semestre e da nota obtida na Prova de Recuperação.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Média aritmética da nota final obtida pelo aluno durante o semestre e da nota obtida na Prova de Recuperação.</t>
+    <t>1.ENSSLIN, L.; MONTIBELLER NETO, G.; NORONHA, S. M. (2001), Apoio à Decisão: metodologias para estruturação de problemas e avaliação multicritério de alternativas, Florianópolis: Insular
+2.GOMES, L. F. A. M.; GOMES, C. F. S.; ALMEIDA, A. T. (2002), Tomada de Decisão Gerencial: enfoque multicritério, São Paulo: Atlas
+3.LAWRENCE, J. A. JR.; PASTERNACK, B. A. (2002), Applied Management Science: modeling, spreadsheet analysis and communication for decision making, 2nd edition, New York (USA): Wiley
+4.SHIMIZU, T. (2001), Decisão nas Organizações: introdução aos problemas de decisão encontrados nas organizações e nos sistemas de apoio à decisão, São Paulo: Atlas</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -475,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -594,98 +610,106 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>34</v>
+      <c r="B22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
